--- a/code_lists/Code lists/outcomes_hesae_aepatgroup_codelists.xlsx
+++ b/code_lists/Code lists/outcomes_hesae_aepatgroup_codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bo18534_bristol_ac_uk/Documents/Main Project/CPRD/dst_cprd/code_lists/Code lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{DB5B7CDA-6976-4EA5-A1F1-E739742E46E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8863354-CDF3-4D52-8301-2A312FB9A9B0}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{DB5B7CDA-6976-4EA5-A1F1-E739742E46E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7249CD1-29DC-4BB0-96A8-03499D0D92BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{04380B88-CB69-438A-99CB-4A5199D70205}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04380B88-CB69-438A-99CB-4A5199D70205}"/>
   </bookViews>
   <sheets>
     <sheet name="Road traffic accidents" sheetId="1" r:id="rId1"/>
@@ -38,21 +38,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>aepatgroup</t>
   </si>
   <si>
     <t>***These were used in conjunction with diag2 codes (see separate code lists).</t>
   </si>
+  <si>
+    <t>Codelist created by M de L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -79,11 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,9 +113,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +153,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -248,7 +259,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -390,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -398,22 +409,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B388E619-96D7-488F-8817-AA8CA8C9F9D3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K26:K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -423,22 +440,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F64939-7AC1-4780-BA79-1A12B93706A8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -448,36 +471,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B493053F-3ECA-4BCF-97AB-CB71F62E0A84}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
     </row>
